--- a/data2/portfolio_min_risk_short.xlsx
+++ b/data2/portfolio_min_risk_short.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0149899256392343</v>
+        <v>-0.01454013946661217</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.04679513985460255</v>
+        <v>-0.04789039136645227</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.00782692347712452</v>
+        <v>-0.009980408105978155</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0106599058040607</v>
+        <v>0.009821662179707598</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.04509624880767685</v>
+        <v>-0.04068218365667754</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.007319981971696703</v>
+        <v>-0.005770937063560803</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.00624149992724836</v>
+        <v>-0.006463275442747077</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.02159019146857542</v>
+        <v>-0.02091629503034118</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.08123903296139928</v>
+        <v>-0.08169396124881713</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.06718583671237197</v>
+        <v>0.06779565249462011</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.07092238917016164</v>
+        <v>0.06978509472916586</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.06879364323778718</v>
+        <v>0.06590587941930426</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1152731294240229</v>
+        <v>0.1130651106239351</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2081139323851381</v>
+        <v>0.2077739292709771</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.07494644476124319</v>
+        <v>-0.07570263091947525</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.00891501034783366</v>
+        <v>-0.009671771794006455</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.02376416395800502</v>
+        <v>0.02330744284693273</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.2372613342763075</v>
+        <v>0.2860200852343598</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2825854400136281</v>
+        <v>-0.2386738483027594</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.02269438730418885</v>
+        <v>-0.02324026963358585</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.04103600458101497</v>
+        <v>-0.04021763888979305</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.137062430095957</v>
+        <v>-0.1368525086592385</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1007751403830448</v>
+        <v>0.1042127310848403</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.04818483866303848</v>
+        <v>0.0486461362724357</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05721150035589837</v>
+        <v>0.05448914001210557</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.02270800566597156</v>
+        <v>0.02385399997265996</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.07557284764267412</v>
+        <v>0.07486083216425908</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.01887833557921692</v>
+        <v>-0.01745783386171269</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.01770692871188934</v>
+        <v>-0.01828928957496457</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.02630282427537424</v>
+        <v>-0.02624073320745832</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.09418651796626673</v>
+        <v>-0.09437152056355283</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.007128984932454722</v>
+        <v>0.007519807606183237</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.02432201899206023</v>
+        <v>-0.02439313520012773</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.06247528553212856</v>
+        <v>0.06359589105232213</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.04137346141878392</v>
+        <v>0.04203091629549039</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.07214916617090836</v>
+        <v>0.07205828772467861</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.06587935140976899</v>
+        <v>0.06575056484809584</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.02939311280738753</v>
+        <v>0.02866134185467371</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1135527742873315</v>
+        <v>0.1134849487992721</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1177118846060387</v>
+        <v>0.1166941743247771</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.07768274864021951</v>
+        <v>0.07661363077961102</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.03037877927709351</v>
+        <v>0.03146516038882811</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.09334173246466104</v>
+        <v>0.09505128155750124</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.02019774581357343</v>
+        <v>0.02006343342477869</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0515814847780872</v>
+        <v>0.05167428358946403</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.03939614839163016</v>
+        <v>-0.0396207513307096</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0607663208670399</v>
+        <v>0.05808720354631403</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.04506351133140383</v>
+        <v>0.04642666858185968</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.05292553102588185</v>
+        <v>-0.05135005277846094</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.0136942573362608</v>
+        <v>-0.01469571458212165</v>
       </c>
     </row>
   </sheetData>

--- a/data2/portfolio_min_risk_short.xlsx
+++ b/data2/portfolio_min_risk_short.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.01454013946661217</v>
+        <v>-0.01470429199441242</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.04789039136645227</v>
+        <v>-0.04558021581030089</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.009980408105978155</v>
+        <v>-0.009826403510106795</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.009821662179707598</v>
+        <v>0.008226121485872784</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.04068218365667754</v>
+        <v>-0.04316008579431754</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.005770937063560803</v>
+        <v>-0.01157253281283423</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.006463275442747077</v>
+        <v>-0.006493037314404795</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.02091629503034118</v>
+        <v>-0.02572169932097143</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.08169396124881713</v>
+        <v>-0.08015707014535689</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.06779565249462011</v>
+        <v>0.06473596093476565</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.06978509472916586</v>
+        <v>0.07139121916325228</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.06590587941930426</v>
+        <v>0.07733637174846859</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1130651106239351</v>
+        <v>0.1233898754576115</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2077739292709771</v>
+        <v>0.2091587838646004</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.07570263091947525</v>
+        <v>-0.08353428163828867</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.009671771794006455</v>
+        <v>-0.002495154701341215</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.02330744284693273</v>
+        <v>0.01671036800076502</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2860200852343598</v>
+        <v>0.2753602545626601</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.2386738483027594</v>
+        <v>-0.222677881257742</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.02324026963358585</v>
+        <v>-0.01930698667692329</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.04021763888979305</v>
+        <v>-0.04105922513277995</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.1368525086592385</v>
+        <v>-0.141938455995426</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1042127310848403</v>
+        <v>0.1048743112924959</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0486461362724357</v>
+        <v>0.04424339686558416</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05448914001210557</v>
+        <v>0.05949019800012678</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.02385399997265996</v>
+        <v>0.01861251411408677</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.07486083216425908</v>
+        <v>0.07736807577675232</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.01745783386171269</v>
+        <v>-0.0250016481418028</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.01828928957496457</v>
+        <v>-0.01961362217271759</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.02624073320745832</v>
+        <v>-0.0294715145912881</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.09437152056355283</v>
+        <v>-0.09576921519656952</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.007519807606183237</v>
+        <v>0.006417395024311053</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.02439313520012773</v>
+        <v>-0.02292509128313051</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.06359589105232213</v>
+        <v>0.06332293387393957</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.04203091629549039</v>
+        <v>0.03937713790365305</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.07205828772467861</v>
+        <v>0.07042443893857833</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.06575056484809584</v>
+        <v>0.06768668814173028</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.02866134185467371</v>
+        <v>0.02909378411594531</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1134849487992721</v>
+        <v>0.1119119236831914</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1166941743247771</v>
+        <v>0.1160916927122154</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.07661363077961102</v>
+        <v>0.079998289855468</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.03146516038882811</v>
+        <v>0.0295060767461054</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.09505128155750124</v>
+        <v>0.09388609445062236</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.02006343342477869</v>
+        <v>0.02593231010365504</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.05167428358946403</v>
+        <v>0.05303268938139529</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.0396207513307096</v>
+        <v>-0.03745826781061814</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.05808720354631403</v>
+        <v>0.06270911510394725</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.04642666858185968</v>
+        <v>0.04609120822202557</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.05135005277846094</v>
+        <v>-0.05310395082503255</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.01469571458212165</v>
+        <v>-0.01480859739746029</v>
       </c>
     </row>
   </sheetData>
